--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sascha Meyer\shard-payout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>&lt;https://swgoh.gg/u/ansirus/&gt;</t>
+  </si>
+  <si>
+    <t>@Jinn Kuen</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>:flag_gb:</t>
+  </si>
+  <si>
+    <t>https://swgoh.gg/u/jinnkuen/</t>
   </si>
 </sst>
 </file>
@@ -561,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -622,6 +634,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -634,10 +649,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1048,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1136,7 +1152,7 @@
         <v>#REF!</v>
       </c>
       <c r="T1" s="3" t="str">
-        <f>H9</f>
+        <f>H10</f>
         <v>EDT</v>
       </c>
       <c r="U1" s="3" t="e">
@@ -1148,7 +1164,7 @@
         <v>#REF!</v>
       </c>
       <c r="W1" s="3" t="str">
-        <f>H13</f>
+        <f>H14</f>
         <v>PDT</v>
       </c>
     </row>
@@ -1235,7 +1251,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -1319,7 +1335,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="40" t="s">
         <v>32</v>
       </c>
@@ -1401,7 +1417,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="41" t="s">
         <v>33</v>
       </c>
@@ -1483,7 +1499,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="41" t="s">
         <v>34</v>
       </c>
@@ -1565,7 +1581,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="41" t="s">
         <v>35</v>
       </c>
@@ -1647,7 +1663,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="41" t="s">
         <v>36</v>
       </c>
@@ -1728,116 +1744,73 @@
         <v>0.37500000000000028</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="24">
+        <v>24</v>
+      </c>
+      <c r="D9" s="24">
+        <v>16</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="26">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C10" s="24">
         <v>3</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D10" s="24">
         <v>19</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G10" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="H9" s="34" t="str">
-        <f>Sheet2!$A$9</f>
-        <v>EDT</v>
-      </c>
-      <c r="I9" s="26">
-        <v>0.875</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="12">
-        <f>$I9+Sheet2!B$1/24</f>
-        <v>1.2916666666666667</v>
-      </c>
-      <c r="M9" s="26">
-        <f>$I9+Sheet2!B$2/24</f>
-        <v>1.25</v>
-      </c>
-      <c r="N9" s="26">
-        <f>$I9+Sheet2!B$3/24</f>
-        <v>1.2083333333333333</v>
-      </c>
-      <c r="O9" s="26">
-        <f>$I9+Sheet2!B$4/24</f>
-        <v>1</v>
-      </c>
-      <c r="P9" s="26">
-        <f>$I9+Sheet2!B$5/24</f>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="26">
-        <f>$I9+Sheet2!B$6/24</f>
-        <v>1</v>
-      </c>
-      <c r="R9" s="26">
-        <f>$I9+Sheet2!B$7/24</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="S9" s="26">
-        <f>$I9+Sheet2!B$8/24</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="T9" s="26">
-        <f>$I9+Sheet2!B$9/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="U9" s="26">
-        <f>$I9+Sheet2!B$10/24</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="V9" s="26">
-        <f>$I9+Sheet2!B$11/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="W9" s="26">
-        <f>$I9+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="24">
-        <v>6</v>
-      </c>
-      <c r="D10" s="24">
-        <v>20</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="34" t="str">
         <f>Sheet2!$A$9</f>
         <v>EDT</v>
       </c>
       <c r="I10" s="26">
-        <v>0.91666666666666696</v>
+        <v>0.875</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>13</v>
@@ -1845,65 +1818,65 @@
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="12">
         <f>$I10+Sheet2!B$1/24</f>
-        <v>1.3333333333333337</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="M10" s="26">
         <f>$I10+Sheet2!B$2/24</f>
-        <v>1.291666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="N10" s="26">
         <f>$I10+Sheet2!B$3/24</f>
-        <v>1.2500000000000002</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="O10" s="26">
         <f>$I10+Sheet2!B$4/24</f>
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="P10" s="26">
         <f>$I10+Sheet2!B$5/24</f>
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="26">
         <f>$I10+Sheet2!B$6/24</f>
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="R10" s="26">
         <f>$I10+Sheet2!B$7/24</f>
-        <v>1.0000000000000002</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="S10" s="26">
         <f>$I10+Sheet2!B$8/24</f>
-        <v>0.95833333333333359</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="T10" s="26">
         <f>$I10+Sheet2!B$9/24</f>
-        <v>0.75000000000000033</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="U10" s="26">
         <f>$I10+Sheet2!B$10/24</f>
-        <v>0.70833333333333359</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V10" s="26">
         <f>$I10+Sheet2!B$11/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="W10" s="26">
         <f>$I10+Sheet2!B$12/24</f>
-        <v>0.62500000000000022</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>52</v>
@@ -1912,7 +1885,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H11" s="34" t="str">
         <f>Sheet2!$A$9</f>
@@ -1977,15 +1950,15 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" s="24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>52</v>
@@ -1994,7 +1967,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H12" s="34" t="str">
         <f>Sheet2!$A$9</f>
@@ -2009,7 +1982,7 @@
       <c r="K12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="28">
         <f>$I12+Sheet2!B$1/24</f>
         <v>1.3333333333333337</v>
       </c>
@@ -2059,92 +2032,94 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="14">
+        <v>40</v>
+      </c>
+      <c r="C13" s="24">
         <v>2</v>
       </c>
-      <c r="D13" s="14">
-        <v>27</v>
+      <c r="D13" s="24">
+        <v>22</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>60</v>
+      <c r="G13" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="H13" s="34" t="str">
-        <f>Sheet2!$A$12</f>
-        <v>PDT</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="J13" s="33" t="s">
+        <f>Sheet2!$A$9</f>
+        <v>EDT</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="36">
+      <c r="K13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="12">
         <f>$I13+Sheet2!B$1/24</f>
-        <v>1.4583333333333335</v>
-      </c>
-      <c r="M13" s="15">
+        <v>1.3333333333333337</v>
+      </c>
+      <c r="M13" s="26">
         <f>$I13+Sheet2!B$2/24</f>
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="N13" s="15">
+        <v>1.291666666666667</v>
+      </c>
+      <c r="N13" s="26">
         <f>$I13+Sheet2!B$3/24</f>
-        <v>1.375</v>
-      </c>
-      <c r="O13" s="15">
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="O13" s="26">
         <f>$I13+Sheet2!B$4/24</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="P13" s="15">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="P13" s="26">
         <f>$I13+Sheet2!B$5/24</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="Q13" s="15">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="Q13" s="26">
         <f>$I13+Sheet2!B$6/24</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="R13" s="15">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="R13" s="26">
         <f>$I13+Sheet2!B$7/24</f>
-        <v>1.125</v>
-      </c>
-      <c r="S13" s="15">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="S13" s="26">
         <f>$I13+Sheet2!B$8/24</f>
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="T13" s="15">
+        <v>0.95833333333333359</v>
+      </c>
+      <c r="T13" s="26">
         <f>$I13+Sheet2!B$9/24</f>
-        <v>0.87500000000000011</v>
-      </c>
-      <c r="U13" s="15">
+        <v>0.75000000000000033</v>
+      </c>
+      <c r="U13" s="26">
         <f>$I13+Sheet2!B$10/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="V13" s="15">
+        <v>0.70833333333333359</v>
+      </c>
+      <c r="V13" s="26">
         <f>$I13+Sheet2!B$11/24</f>
-        <v>0.79166666666666674</v>
-      </c>
-      <c r="W13" s="15">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="W13" s="26">
         <f>$I13+Sheet2!B$12/24</f>
-        <v>0.75</v>
+        <v>0.62500000000000022</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="14">
         <v>27</v>
@@ -2156,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="34" t="str">
         <f>Sheet2!$A$12</f>
@@ -2219,9 +2194,9 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="14">
         <v>1</v>
@@ -2236,7 +2211,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="34" t="str">
         <f>Sheet2!$A$12</f>
@@ -2299,12 +2274,12 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" s="14">
         <v>27</v>
@@ -2316,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="34" t="str">
         <f>Sheet2!$A$12</f>
@@ -2378,23 +2353,103 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="14">
+        <v>9</v>
+      </c>
+      <c r="D17" s="14">
+        <v>27</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="34" t="str">
+        <f>Sheet2!$A$12</f>
+        <v>PDT</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="36">
+        <f>$I17+Sheet2!B$1/24</f>
+        <v>1.4583333333333335</v>
+      </c>
+      <c r="M17" s="15">
+        <f>$I17+Sheet2!B$2/24</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="N17" s="15">
+        <f>$I17+Sheet2!B$3/24</f>
+        <v>1.375</v>
+      </c>
+      <c r="O17" s="15">
+        <f>$I17+Sheet2!B$4/24</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="P17" s="15">
+        <f>$I17+Sheet2!B$5/24</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="Q17" s="15">
+        <f>$I17+Sheet2!B$6/24</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="R17" s="15">
+        <f>$I17+Sheet2!B$7/24</f>
+        <v>1.125</v>
+      </c>
+      <c r="S17" s="15">
+        <f>$I17+Sheet2!B$8/24</f>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="T17" s="15">
+        <f>$I17+Sheet2!B$9/24</f>
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="U17" s="15">
+        <f>$I17+Sheet2!B$10/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V17" s="15">
+        <f>$I17+Sheet2!B$11/24</f>
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="W17" s="15">
+        <f>$I17+Sheet2!B$12/24</f>
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B2:W28">
-    <sortCondition ref="D2:D28"/>
+  <sortState ref="B2:W29">
+    <sortCondition ref="D2:D29"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A10:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2:M2 L3:W13">
+  <conditionalFormatting sqref="L2:M2 L3:W14">
     <cfRule type="expression" dxfId="11" priority="25">
       <formula>L$1=$H2</formula>
     </cfRule>
@@ -2409,7 +2464,7 @@
       <formula>N$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:D13 F11:W13 E11:E16 B2:W10">
+  <conditionalFormatting sqref="B12:D14 F12:W14 E12:E17 B2:W11">
     <cfRule type="expression" dxfId="8" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -2424,38 +2479,41 @@
       <formula>L$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:W14">
+  <conditionalFormatting sqref="L15:W15">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>L$1=$H14</formula>
+      <formula>L$1=$H15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:D14 F14:W14">
+  <conditionalFormatting sqref="B15:D15 F15:W15">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L17:W17">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>L$1=$H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:D17 F17:W17">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L16:W16">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>L$1=$H16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:D16 F16:W16">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:W15">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>L$1=$H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D15 F15:W15">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2464,11 +2522,11 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wojciech.kawecki/GitHub/swgoh-arena-payout/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,20 @@
   <definedNames>
     <definedName name="Z_C889AC74_BC82_49E8_BA01_AB64462BFCF2_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$D,Sheet1!$F:$G,Sheet1!$K:$K</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -125,51 +131,6 @@
     <t>JST</t>
   </si>
   <si>
-    <t>@Pinnnkky</t>
-  </si>
-  <si>
-    <t>@Gorra</t>
-  </si>
-  <si>
-    <t>@Andreas Angin</t>
-  </si>
-  <si>
-    <t>@Ansirus</t>
-  </si>
-  <si>
-    <t>@Mops56</t>
-  </si>
-  <si>
-    <t>@Ronron</t>
-  </si>
-  <si>
-    <t>@Xilentis</t>
-  </si>
-  <si>
-    <t>@Faroer Laike</t>
-  </si>
-  <si>
-    <t>@Afatkid</t>
-  </si>
-  <si>
-    <t>@Kyle Katarn</t>
-  </si>
-  <si>
-    <t>@Rylb89</t>
-  </si>
-  <si>
-    <t>@Jezza</t>
-  </si>
-  <si>
-    <t>@Kabob</t>
-  </si>
-  <si>
-    <t>@Mascularn</t>
-  </si>
-  <si>
-    <t>@gnarlee</t>
-  </si>
-  <si>
     <t>&lt;https://swgoh.gg/u/pinnnkky/&gt;</t>
   </si>
   <si>
@@ -248,9 +209,6 @@
     <t>&lt;https://swgoh.gg/u/ansirus/&gt;</t>
   </si>
   <si>
-    <t>@Jinn Kuen</t>
-  </si>
-  <si>
     <t>Great Britain</t>
   </si>
   <si>
@@ -258,12 +216,60 @@
   </si>
   <si>
     <t>https://swgoh.gg/u/jinnkuen/</t>
+  </si>
+  <si>
+    <t>Pinnnkky</t>
+  </si>
+  <si>
+    <t>Gorra</t>
+  </si>
+  <si>
+    <t>Andreas Angin</t>
+  </si>
+  <si>
+    <t>Ansirus</t>
+  </si>
+  <si>
+    <t>Mops56</t>
+  </si>
+  <si>
+    <t>Ronron</t>
+  </si>
+  <si>
+    <t>Xilentis</t>
+  </si>
+  <si>
+    <t>Jinn Kuen</t>
+  </si>
+  <si>
+    <t>Faroer Laike</t>
+  </si>
+  <si>
+    <t>Afatkid</t>
+  </si>
+  <si>
+    <t>Kyle Katarn</t>
+  </si>
+  <si>
+    <t>Rylb89</t>
+  </si>
+  <si>
+    <t>Jezza</t>
+  </si>
+  <si>
+    <t>Kabob</t>
+  </si>
+  <si>
+    <t>Mascularn</t>
+  </si>
+  <si>
+    <t>gnarlee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
@@ -637,6 +643,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -649,11 +656,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1063,32 +1069,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1"/>
+  <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="12" max="12" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1168,12 +1174,12 @@
         <v>PDT</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6">
         <v>25</v>
@@ -1182,13 +1188,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5" t="str">
         <f>Sheet2!A3</f>
@@ -1250,12 +1256,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C3" s="17">
         <v>11</v>
@@ -1270,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H3" s="19" t="str">
         <f>Sheet2!$A$4</f>
@@ -1334,10 +1340,10 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
       <c r="B4" s="40" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C4" s="13">
         <v>10</v>
@@ -1346,13 +1352,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H4" s="32" t="str">
         <f>Sheet2!$A$7</f>
@@ -1416,10 +1422,10 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
       <c r="B5" s="41" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C5" s="24">
         <v>3</v>
@@ -1428,13 +1434,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H5" s="34" t="str">
         <f>Sheet2!$A$7</f>
@@ -1498,10 +1504,10 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
       <c r="B6" s="41" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C6" s="24">
         <v>5</v>
@@ -1516,7 +1522,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H6" s="34" t="str">
         <f>Sheet2!$A$7</f>
@@ -1580,10 +1586,10 @@
         <v>0.37500000000000028</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
       <c r="B7" s="41" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C7" s="24">
         <v>4</v>
@@ -1598,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H7" s="34" t="str">
         <f>Sheet2!$A$7</f>
@@ -1662,10 +1668,10 @@
         <v>0.37500000000000028</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
       <c r="B8" s="41" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C8" s="24">
         <v>7</v>
@@ -1674,13 +1680,13 @@
         <v>14</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H8" s="34" t="str">
         <f>Sheet2!$A$7</f>
@@ -1744,10 +1750,10 @@
         <v>0.37500000000000028</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="24">
         <v>24</v>
@@ -1756,13 +1762,13 @@
         <v>16</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="26">
@@ -1783,12 +1789,12 @@
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C10" s="24">
         <v>3</v>
@@ -1797,13 +1803,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>65</v>
       </c>
       <c r="H10" s="34" t="str">
         <f>Sheet2!$A$9</f>
@@ -1867,10 +1873,10 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
       <c r="B11" s="41" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C11" s="24">
         <v>6</v>
@@ -1879,13 +1885,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H11" s="34" t="str">
         <f>Sheet2!$A$9</f>
@@ -1949,10 +1955,10 @@
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
       <c r="B12" s="41" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C12" s="24">
         <v>8</v>
@@ -1961,13 +1967,13 @@
         <v>21</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H12" s="34" t="str">
         <f>Sheet2!$A$9</f>
@@ -2031,10 +2037,10 @@
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+    <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
       <c r="B13" s="41" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C13" s="24">
         <v>2</v>
@@ -2043,13 +2049,13 @@
         <v>22</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H13" s="34" t="str">
         <f>Sheet2!$A$9</f>
@@ -2113,10 +2119,10 @@
         <v>0.62500000000000022</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
       <c r="B14" s="41" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C14" s="14">
         <v>2</v>
@@ -2125,13 +2131,13 @@
         <v>27</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H14" s="34" t="str">
         <f>Sheet2!$A$12</f>
@@ -2193,10 +2199,10 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
       <c r="B15" s="41" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C15" s="14">
         <v>1</v>
@@ -2205,13 +2211,13 @@
         <v>27</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H15" s="34" t="str">
         <f>Sheet2!$A$12</f>
@@ -2273,10 +2279,10 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+    <row r="16" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
       <c r="B16" s="41" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C16" s="14">
         <v>1</v>
@@ -2285,13 +2291,13 @@
         <v>27</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H16" s="34" t="str">
         <f>Sheet2!$A$12</f>
@@ -2353,10 +2359,10 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
       <c r="B17" s="41" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C17" s="14">
         <v>9</v>
@@ -2365,13 +2371,13 @@
         <v>27</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H17" s="34" t="str">
         <f>Sheet2!$A$12</f>
@@ -2438,10 +2444,10 @@
     <sortCondition ref="D2:D29"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -2519,22 +2525,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle2"/>
+  <sheetPr codeName="Tabelle2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2579,7 +2585,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2591,7 +2597,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>IF(B6=2,"EET",IF(B6=3,"EEST"))</f>
         <v>EEST</v>
@@ -2607,7 +2613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>IF(B7=1,"CET",IF(B7=2,"CEST"))</f>
         <v>CEST</v>
@@ -2623,7 +2629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>IF(B8=1,"BST",IF(B8=0,"GMT"))</f>
         <v>BST</v>
@@ -2639,7 +2645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>IF(B9=-5,"EST",IF(B9=-4,"EDT"))</f>
         <v>EDT</v>
@@ -2655,7 +2661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>IF(B10=-6,"CST",IF(B10=-5,"CDT"))</f>
         <v>CDT</v>
@@ -2671,7 +2677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>IF(B11=-7,"MST",IF(B11=-6,"MDT"))</f>
         <v>MDT</v>
@@ -2687,7 +2693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF(B12=-8,"PST",IF(B12=-7,"PDT"))</f>
         <v>PDT</v>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -12,15 +12,12 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Z_C889AC74_BC82_49E8_BA01_AB64462BFCF2_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$B:$B,Sheet1!$D:$E,Sheet1!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -215,19 +212,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -242,14 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -274,25 +254,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -316,196 +302,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -525,18 +321,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:F17"/>
-  <sortState ref="A2:F17">
-    <sortCondition ref="F1:F17"/>
-  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="7"/>
-    <tableColumn id="2" name="Joined" dataDxfId="6"/>
-    <tableColumn id="3" name="Country" dataDxfId="5"/>
-    <tableColumn id="4" name="Flag" dataDxfId="4"/>
-    <tableColumn id="5" name="SWGOH" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" name="UTC" dataDxfId="2"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Joined"/>
+    <tableColumn id="3" name="Country"/>
+    <tableColumn id="4" name="Flag"/>
+    <tableColumn id="5" name="SWGOH"/>
+    <tableColumn id="6" name="UTC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -839,400 +632,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>0.625</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>0.91666666666666696</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>0.91666666666666696</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>0.91666666666666696</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
         <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <v>1.0416666666666667</v>
       </c>
     </row>
   </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" hiddenColumns="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-  </customSheetViews>
-  <conditionalFormatting sqref="A12:B14 C12:F17 A2:F11">
-    <cfRule type="expression" dxfId="11" priority="31">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,23 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Joined</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>Flag</t>
   </si>
   <si>
-    <t>SWGOH</t>
-  </si>
-  <si>
     <t>UTC</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>:flag_us:</t>
   </si>
   <si>
-    <t>&lt;https://swgoh.gg/u/pinnnkky/&gt;</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -94,45 +85,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>&lt;https://swgoh.gg/u/gorra/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/angin/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/ronron/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/mops56/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/xilentis/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/afatkid/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/rylb89/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/jezza/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/kabob/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/Mascularn/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/gnarlee/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/kyle%20katarn/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://swgoh.gg/u/fss001/&gt;</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -145,18 +97,12 @@
     <t>:flag_hu:</t>
   </si>
   <si>
-    <t>&lt;https://swgoh.gg/u/ansirus/&gt;</t>
-  </si>
-  <si>
     <t>Great Britain</t>
   </si>
   <si>
     <t>:flag_gb:</t>
   </si>
   <si>
-    <t>https://swgoh.gg/u/jinnkuen/</t>
-  </si>
-  <si>
     <t>Pinnnkky</t>
   </si>
   <si>
@@ -203,6 +149,54 @@
   </si>
   <si>
     <t>gnarlee</t>
+  </si>
+  <si>
+    <t>jezza</t>
+  </si>
+  <si>
+    <t>kabob</t>
+  </si>
+  <si>
+    <t>pinnnkky</t>
+  </si>
+  <si>
+    <t>gorra</t>
+  </si>
+  <si>
+    <t>ansirus</t>
+  </si>
+  <si>
+    <t>mascularn</t>
+  </si>
+  <si>
+    <t>mops56</t>
+  </si>
+  <si>
+    <t>ronron</t>
+  </si>
+  <si>
+    <t>xilentis</t>
+  </si>
+  <si>
+    <t>angin</t>
+  </si>
+  <si>
+    <t>jinnkuen</t>
+  </si>
+  <si>
+    <t>fss001</t>
+  </si>
+  <si>
+    <t>afatkid</t>
+  </si>
+  <si>
+    <t>nebling4</t>
+  </si>
+  <si>
+    <t>rylb89</t>
+  </si>
+  <si>
+    <t>SWGOHGG</t>
   </si>
 </sst>
 </file>
@@ -321,14 +315,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:F17"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:E17"/>
+  <sortState ref="A2:G17">
+    <sortCondition ref="E1:E17"/>
+  </sortState>
+  <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Joined"/>
     <tableColumn id="3" name="Country"/>
     <tableColumn id="4" name="Flag"/>
-    <tableColumn id="5" name="SWGOH"/>
+    <tableColumn id="5" name="SWGOHGG"/>
     <tableColumn id="6" name="UTC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -632,23 +628,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,333 +654,282 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.91666666666666696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.91666666666666696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="3">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="3">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.0416666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.0416666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1.0416666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="3">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.0416666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,36 +764,36 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4">
-        <v>0.66666666666666696</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460"/>
   </bookViews>
   <sheets>
     <sheet name="shard" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -97,12 +97,6 @@
     <t>:flag_hu:</t>
   </si>
   <si>
-    <t>Great Britain</t>
-  </si>
-  <si>
-    <t>:flag_gb:</t>
-  </si>
-  <si>
     <t>Pinnnkky</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>Xilentis</t>
   </si>
   <si>
-    <t>Jinn Kuen</t>
-  </si>
-  <si>
     <t>Faroer Laike</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>angin</t>
   </si>
   <si>
-    <t>jinnkuen</t>
-  </si>
-  <si>
     <t>fss001</t>
   </si>
   <si>
@@ -197,6 +185,24 @@
   </si>
   <si>
     <t>SWGOHGG</t>
+  </si>
+  <si>
+    <t>Siilas Marr</t>
+  </si>
+  <si>
+    <t>:skull_crossbones:</t>
+  </si>
+  <si>
+    <t>Lizsen Kendet</t>
+  </si>
+  <si>
+    <t>tosh</t>
+  </si>
+  <si>
+    <t>DarthDingus</t>
+  </si>
+  <si>
+    <t>Mal'og Therne</t>
   </si>
 </sst>
 </file>
@@ -315,8 +321,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:E16"/>
   <sortState ref="A2:G17">
     <sortCondition ref="E1:E17"/>
   </sortState>
@@ -628,17 +634,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -654,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -662,7 +668,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -671,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4">
         <v>1.0416666666666667</v>
@@ -679,7 +685,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -688,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>1.0416666666666667</v>
@@ -696,7 +702,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -705,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4">
         <v>1.0416666666666667</v>
@@ -713,7 +719,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -722,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4">
         <v>1.0416666666666667</v>
@@ -730,7 +736,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -739,7 +745,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4">
         <v>0.41666666666666669</v>
@@ -747,7 +753,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -756,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
         <v>0.625</v>
@@ -764,7 +770,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -773,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4">
         <v>0.66666666666666696</v>
@@ -781,7 +787,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -790,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4">
         <v>0.66666666666666663</v>
@@ -798,7 +804,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -807,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4">
         <v>0.66666666666666696</v>
@@ -815,7 +821,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -824,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4">
         <v>0.66666666666666696</v>
@@ -832,7 +838,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -841,7 +847,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4">
         <v>0.66666666666666663</v>
@@ -849,41 +855,41 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4">
-        <v>0.70833333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4">
-        <v>0.875</v>
+        <v>0.91666666666666696</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -892,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4">
         <v>0.91666666666666696</v>
@@ -900,7 +906,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -909,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4">
         <v>0.91666666666666696</v>
@@ -917,19 +923,67 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="4">
-        <v>0.91666666666666696</v>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4">
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -118,6 +118,9 @@
     <t>Xilentis</t>
   </si>
   <si>
+    <t>Jinn Kuen</t>
+  </si>
+  <si>
     <t>Faroer Laike</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>angin</t>
   </si>
   <si>
+    <t>jinnkuen</t>
+  </si>
+  <si>
     <t>fss001</t>
   </si>
   <si>
@@ -203,6 +209,12 @@
   </si>
   <si>
     <t>Mal'og Therne</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>:flag_GB:</t>
   </si>
 </sst>
 </file>
@@ -257,12 +269,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:E17"/>
   <sortState ref="A2:G17">
     <sortCondition ref="E1:E17"/>
   </sortState>
@@ -634,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -660,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -668,7 +682,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -677,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4">
         <v>1.0416666666666667</v>
@@ -685,7 +699,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -694,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4">
         <v>1.0416666666666667</v>
@@ -702,7 +716,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -711,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="4">
         <v>1.0416666666666667</v>
@@ -719,7 +733,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -728,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4">
         <v>1.0416666666666667</v>
@@ -745,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4">
         <v>0.41666666666666669</v>
@@ -762,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4">
         <v>0.625</v>
@@ -779,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4">
         <v>0.66666666666666696</v>
@@ -796,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4">
         <v>0.66666666666666663</v>
@@ -813,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4">
         <v>0.66666666666666696</v>
@@ -830,7 +844,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4">
         <v>0.66666666666666696</v>
@@ -847,27 +861,27 @@
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
+      <c r="B13" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.875</v>
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -875,16 +889,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4">
-        <v>0.91666666666666696</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -898,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4">
         <v>0.91666666666666696</v>
@@ -915,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4">
         <v>0.91666666666666696</v>
@@ -923,24 +937,28 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E17" s="4">
-        <v>4.1666666666666664E-2</v>
+        <v>0.91666666666666696</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
@@ -949,28 +967,28 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
-        <v>0.375</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,10 +997,23 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -97,6 +97,9 @@
     <t>:flag_hu:</t>
   </si>
   <si>
+    <t>:flag_gb:</t>
+  </si>
+  <si>
     <t>Pinnnkky</t>
   </si>
   <si>
@@ -212,9 +215,6 @@
   </si>
   <si>
     <t>GB</t>
-  </si>
-  <si>
-    <t>:flag_GB:</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4">
         <v>1.0416666666666667</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4">
         <v>1.0416666666666667</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4">
         <v>1.0416666666666667</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -742,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4">
         <v>1.0416666666666667</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4">
         <v>0.41666666666666669</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -776,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4">
         <v>0.625</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -793,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4">
         <v>0.66666666666666696</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4">
         <v>0.66666666666666663</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -827,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4">
         <v>0.66666666666666696</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -844,7 +844,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4">
         <v>0.66666666666666696</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -861,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4">
         <v>0.66666666666666663</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="6">
         <v>0.70833333333333337</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -895,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4">
         <v>0.875</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4">
         <v>0.91666666666666696</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4">
         <v>0.91666666666666696</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4">
         <v>0.91666666666666696</v>
@@ -954,11 +954,11 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4">
@@ -967,11 +967,11 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
@@ -980,11 +980,11 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4">
@@ -993,11 +993,11 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4">
@@ -1006,11 +1006,11 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4">

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -35,65 +35,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Flag</t>
   </si>
   <si>
     <t>UTC</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>:flag_ru:</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>:flag_de:</t>
   </si>
   <si>
     <t>:flag_us:</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>:flag_sg:</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>:flag_pl:</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
     <t>:flag_br:</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>:flag_se:</t>
   </si>
   <si>
-    <t>Hungary</t>
-  </si>
-  <si>
     <t>:flag_hu:</t>
   </si>
   <si>
@@ -212,18 +185,12 @@
   </si>
   <si>
     <t>Mal'og Therne</t>
-  </si>
-  <si>
-    <t>GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,15 +201,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -271,19 +240,242 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+  <dxfs count="19">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -292,29 +484,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,19 +504,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:E17"/>
-  <sortState ref="A2:G17">
-    <sortCondition ref="E1:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="18">
+  <autoFilter ref="A1:D17"/>
+  <sortState ref="A2:D17">
+    <sortCondition ref="D1:D17"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="3" name="Country"/>
-    <tableColumn id="4" name="Flag"/>
-    <tableColumn id="5" name="SWGOHGG"/>
-    <tableColumn id="6" name="UTC" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name" dataDxfId="17"/>
+    <tableColumn id="4" name="Flag" dataDxfId="16"/>
+    <tableColumn id="5" name="SWGOHGG" dataDxfId="15"/>
+    <tableColumn id="2" name="UTC" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:D22" headerRowCount="0" headerRowDxfId="9" dataDxfId="7" totalsRowDxfId="8">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="0" dataDxfId="12"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="1" dataDxfId="11"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="2" dataDxfId="10"/>
+    <tableColumn id="6" name="Column2" headerRowDxfId="3" dataDxfId="5" totalsRowDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -648,379 +828,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.0416666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.0416666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4">
-        <v>1.0416666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.0416666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D17" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="2">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4">
-        <v>0.66666666666666663</v>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Mal'og Therne</t>
+  </si>
+  <si>
+    <t>GW</t>
   </si>
 </sst>
 </file>
@@ -238,20 +241,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -260,6 +301,18 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -268,6 +321,18 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -277,20 +342,17 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -383,28 +445,12 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -440,50 +486,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,28 +506,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:D17"/>
   <sortState ref="A2:D17">
     <sortCondition ref="D1:D17"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="17"/>
-    <tableColumn id="4" name="Flag" dataDxfId="16"/>
-    <tableColumn id="5" name="SWGOHGG" dataDxfId="15"/>
-    <tableColumn id="2" name="UTC" dataDxfId="6"/>
+    <tableColumn id="1" name="Name" dataDxfId="15"/>
+    <tableColumn id="4" name="Flag" dataDxfId="14"/>
+    <tableColumn id="5" name="SWGOHGG" dataDxfId="13"/>
+    <tableColumn id="2" name="UTC" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:D22" headerRowCount="0" headerRowDxfId="9" dataDxfId="7" totalsRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:D23" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="0" dataDxfId="12"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="1" dataDxfId="11"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="2" dataDxfId="10"/>
-    <tableColumn id="6" name="Column2" headerRowDxfId="3" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="4" dataDxfId="3"/>
+    <tableColumn id="6" name="Column2" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -828,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,7 +855,7 @@
       <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -867,7 +869,7 @@
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -881,7 +883,7 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -895,7 +897,7 @@
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -909,7 +911,7 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -923,7 +925,7 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>10</v>
       </c>
     </row>
@@ -937,7 +939,7 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>15</v>
       </c>
     </row>
@@ -951,7 +953,7 @@
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>16</v>
       </c>
     </row>
@@ -965,7 +967,7 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>16</v>
       </c>
     </row>
@@ -979,7 +981,7 @@
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>16</v>
       </c>
     </row>
@@ -993,7 +995,7 @@
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1007,7 +1009,7 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1018,10 +1020,10 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1035,7 +1037,7 @@
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>21</v>
       </c>
     </row>
@@ -1049,7 +1051,7 @@
       <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>22</v>
       </c>
     </row>
@@ -1063,7 +1065,7 @@
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>22</v>
       </c>
     </row>
@@ -1077,7 +1079,7 @@
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>22</v>
       </c>
     </row>
@@ -1089,7 +1091,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1101,7 +1103,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1113,7 +1115,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1125,7 +1127,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1137,9 +1139,27 @@
         <v>45</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>16</v>
       </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -16,8 +16,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="Selected Rows &amp; Columns" guid="{C889AC74-BC82-49E8-BA01-AB64462BFCF2}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>GW</t>
+  </si>
+  <si>
+    <t>Griffith</t>
   </si>
 </sst>
 </file>
@@ -254,45 +257,6 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -301,18 +265,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -321,18 +273,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -342,23 +282,86 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -522,12 +525,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:D23" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:D24" headerRowCount="0" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
+  <sortState ref="A19:D25">
+    <sortCondition ref="D18:D25"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="8" dataDxfId="7"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="6" dataDxfId="5"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="4" dataDxfId="3"/>
-    <tableColumn id="6" name="Column2" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="0" dataDxfId="8"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="1" dataDxfId="7"/>
+    <tableColumn id="4" name="Column4" headerRowDxfId="2" dataDxfId="6"/>
+    <tableColumn id="6" name="Column2" headerRowDxfId="3" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -833,7 +839,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1121,19 +1127,19 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
@@ -1145,21 +1151,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
